--- a/ClientTestList.xlsx
+++ b/ClientTestList.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>MainMenu</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>MainView</t>
   </si>
   <si>
     <t>MatchView</t>
@@ -27,7 +27,7 @@
     <t>PlayerView</t>
   </si>
   <si>
-    <t>CountDownUI</t>
+    <t>CountDownView</t>
   </si>
   <si>
     <t>FinishUI</t>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>Canvas Reference</t>
+  </si>
+  <si>
+    <t>CounrDownChessView</t>
+  </si>
+  <si>
+    <t>Client.ConnectAsync</t>
+  </si>
+  <si>
+    <t>Client.Send</t>
+  </si>
+  <si>
+    <t>GameView</t>
+  </si>
+  <si>
+    <t>UIView.Join(Canvas)</t>
+  </si>
+  <si>
+    <t>LoadingView</t>
   </si>
 </sst>
 </file>
@@ -73,7 +91,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,14 +102,6 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.25"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -549,10 +559,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -561,33 +571,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -597,101 +610,98 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -699,9 +709,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1052,10 +1059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1069,7 +1076,7 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1079,7 +1086,7 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1134,8 +1141,38 @@
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/ClientTestList.xlsx
+++ b/ClientTestList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30048" windowHeight="13740"/>
+    <workbookView windowWidth="30048" windowHeight="13740" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,29 +16,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>MainView</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>MatchView</t>
   </si>
   <si>
-    <t>PlayerView</t>
-  </si>
-  <si>
     <t>CountDownView</t>
   </si>
   <si>
     <t>FinishUI</t>
   </si>
   <si>
-    <t>SwitchUILogic</t>
-  </si>
-  <si>
-    <t>ClientCore.Play</t>
-  </si>
-  <si>
     <t xml:space="preserve">ChessboardView </t>
   </si>
   <si>
@@ -79,6 +67,30 @@
   </si>
   <si>
     <t>LoadingView</t>
+  </si>
+  <si>
+    <t>ResponseDector</t>
+  </si>
+  <si>
+    <t>turnplayerprocesser</t>
+  </si>
+  <si>
+    <t>DefaultResponseprocesser</t>
+  </si>
+  <si>
+    <t>gamebuilder</t>
+  </si>
+  <si>
+    <t>NoneResponseprocesser</t>
+  </si>
+  <si>
+    <t>Match/Cancel/Finish/Play Events</t>
+  </si>
+  <si>
+    <t>重构</t>
+  </si>
+  <si>
+    <t>game flow</t>
   </si>
 </sst>
 </file>
@@ -91,7 +103,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,6 +114,14 @@
     <font>
       <sz val="11"/>
       <color theme="0" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -559,10 +579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -571,34 +591,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,94 +627,97 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -705,10 +725,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,8 +1081,8 @@
   <sheetPr/>
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A3 A14 A15 A18 A20 A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1076,27 +1096,27 @@
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1106,52 +1126,52 @@
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1161,17 +1181,17 @@
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1185,14 +1205,58 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="7"/>
+  <cols>
+    <col min="1" max="1" width="41.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
